--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -153,10 +153,10 @@
     <t>Extra comment for test</t>
   </si>
   <si>
-    <t>1.24 [1.20, 1.29]</t>
-  </si>
-  <si>
-    <t>0.581 [0.571, 0.592]</t>
+    <t>1.24 [1.2,1.29]</t>
+  </si>
+  <si>
+    <t>0.581 [0.571,0.592]</t>
   </si>
   <si>
     <t>Number of Individuals</t>
@@ -204,7 +204,7 @@
     <t>Additional Sample/Cohort Information</t>
   </si>
   <si>
-    <t>{'mean': '54.3', 'unit': 'years'}</t>
+    <t>mean:54.3;range:[50.1,58.4];unit:years</t>
   </si>
   <si>
     <t>European</t>
@@ -216,7 +216,7 @@
     <t>Prevalent and incident Ischaemic stroke</t>
   </si>
   <si>
-    <t>{'mean': '6.2', 'sd': 1.7, 'unit': 'years'}</t>
+    <t>mean:6.2;sd:1.7;unit:years</t>
   </si>
   <si>
     <t>UKB</t>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
   <si>
     <t>Polygenic Score (PGS) ID</t>
   </si>
@@ -63,6 +63,15 @@
     <t>Score and results match the original publication</t>
   </si>
   <si>
+    <t>Ancestry Distribution (%) - Source of Variant Associations (GWAS)</t>
+  </si>
+  <si>
+    <t>Ancestry Distribution (%) - Score Development/Training</t>
+  </si>
+  <si>
+    <t>Ancestry Distribution (%) - PGS Evaluation</t>
+  </si>
+  <si>
     <t>FTP link</t>
   </si>
   <si>
@@ -78,10 +87,10 @@
     <t>Ischaemic stroke</t>
   </si>
   <si>
-    <t>stroke, Ischemic stroke</t>
-  </si>
-  <si>
-    <t>EFO_0000712, HP_0002140</t>
+    <t>stroke|Ischemic stroke</t>
+  </si>
+  <si>
+    <t>EFO_0000712|HP_0002140</t>
   </si>
   <si>
     <t>metaGRS of 19 component PGSs</t>
@@ -97,6 +106,15 @@
   </si>
   <si>
     <t>10.1010/test/test2</t>
+  </si>
+  <si>
+    <t>European:75.3|South Asian:13.6|East Asian:6|Hispanic or Latin American:2.2|African:1.7|Greater Middle Eastern:1.2</t>
+  </si>
+  <si>
+    <t>European:100</t>
+  </si>
+  <si>
+    <t>European:42.5|East Asian:20|African:12.5|Hispanic or Latin American:12.5|South Asian:10|Additional Asian Ancestries:2.5</t>
   </si>
   <si>
     <t>http://ftp.ebi.ac.uk/pub/databases/spot/pgs/scores/PGS000039/ScoringFiles/PGS000039.txt.gz</t>
@@ -710,13 +728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -765,31 +783,40 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2">
         <v>3200000</v>
@@ -798,27 +825,36 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="L2">
         <v>10000002</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>26</v>
+      <c r="O2" t="s">
+        <v>29</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="R2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -834,13 +870,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>10</v>
@@ -849,10 +885,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -861,57 +897,57 @@
         <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H2">
         <v>10000002</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -929,63 +965,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>397390</v>
@@ -1000,25 +1036,25 @@
         <v>45.4</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1039,124 +1075,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>230000</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="O2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="N3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>11000</v>
@@ -1168,19 +1204,19 @@
         <v>10150</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1198,51 +1234,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2">
         <v>10000002</v>
@@ -1263,41 +1299,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -7,19 +7,98 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Scores" sheetId="1" r:id="rId1"/>
-    <sheet name="Performance Metrics" sheetId="2" r:id="rId2"/>
-    <sheet name="Evaluation Sample Sets" sheetId="3" r:id="rId3"/>
-    <sheet name="Score Development Samples" sheetId="4" r:id="rId4"/>
-    <sheet name="Publications" sheetId="5" r:id="rId5"/>
-    <sheet name="EFO Traits" sheetId="6" r:id="rId6"/>
+    <sheet name="Publications" sheetId="1" r:id="rId1"/>
+    <sheet name="EFO Traits" sheetId="2" r:id="rId2"/>
+    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="Cohorts" sheetId="4" r:id="rId4"/>
+    <sheet name="Score Development Samples" sheetId="5" r:id="rId5"/>
+    <sheet name="Performance Metrics" sheetId="6" r:id="rId6"/>
+    <sheet name="Evaluation Sample Sets" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+  <si>
+    <t>PGS Publication/Study (PGP) ID</t>
+  </si>
+  <si>
+    <t>First Author</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Journal Name</t>
+  </si>
+  <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>digital object identifier (doi)</t>
+  </si>
+  <si>
+    <t>PubMed ID (PMID)</t>
+  </si>
+  <si>
+    <t>PGP2</t>
+  </si>
+  <si>
+    <t>Second T</t>
+  </si>
+  <si>
+    <t>Test publication 2</t>
+  </si>
+  <si>
+    <t>Test Journal v2</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>Second T, Other C, Other D, Other E</t>
+  </si>
+  <si>
+    <t>10.1010/test/test2</t>
+  </si>
+  <si>
+    <t>Ontology Trait ID</t>
+  </si>
+  <si>
+    <t>Ontology Trait Label</t>
+  </si>
+  <si>
+    <t>Ontology Trait Description</t>
+  </si>
+  <si>
+    <t>Ontology URL</t>
+  </si>
+  <si>
+    <t>EFO_0000712</t>
+  </si>
+  <si>
+    <t>HP_0002140</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>Ischemic stroke</t>
+  </si>
+  <si>
+    <t>A sudden loss of neurological function secondary to hemorrhage or ischemia in the brain parenchyma due to a vascular event. [NCIT: C3390]</t>
+  </si>
+  <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0000712</t>
+  </si>
+  <si>
+    <t>https://www.ebi.ac.uk/ols/ontologies/efo/terms?iri=http://purl.obolibrary.org/obo/HP_0002140</t>
+  </si>
   <si>
     <t>Polygenic Score (PGS) ID</t>
   </si>
@@ -102,12 +181,6 @@
     <t>hg19</t>
   </si>
   <si>
-    <t>PGP2</t>
-  </si>
-  <si>
-    <t>10.1010/test/test2</t>
-  </si>
-  <si>
     <t>European:75.3|South Asian:13.6|East Asian:6|Hispanic or Latin American:2.2|African:1.7|Greater Middle Eastern:1.2</t>
   </si>
   <si>
@@ -123,6 +196,114 @@
     <t>PGS obtained from the Catalog should be cited appropriately, and used in accordance with any licensing restrictions set by the authors. See EBI Terms of Use (https://www.ebi.ac.uk/about/terms-of-use/) for additional details.</t>
   </si>
   <si>
+    <t>Cohort ID</t>
+  </si>
+  <si>
+    <t>Cohort Name</t>
+  </si>
+  <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>UK Biobank</t>
+  </si>
+  <si>
+    <t>Stage of PGS Development</t>
+  </si>
+  <si>
+    <t>Number of Individuals</t>
+  </si>
+  <si>
+    <t>Number of Cases</t>
+  </si>
+  <si>
+    <t>Number of Controls</t>
+  </si>
+  <si>
+    <t>Percent of Participants Who are Male</t>
+  </si>
+  <si>
+    <t>Sample Age</t>
+  </si>
+  <si>
+    <t>Broad Ancestry Category</t>
+  </si>
+  <si>
+    <t>Ancestry (e.g. French, Chinese)</t>
+  </si>
+  <si>
+    <t>Country of Recruitment</t>
+  </si>
+  <si>
+    <t>Additional Ancestry Description</t>
+  </si>
+  <si>
+    <t>Phenotype Definitions and Methods</t>
+  </si>
+  <si>
+    <t>Followup Time</t>
+  </si>
+  <si>
+    <t>GWAS Catalog Study ID (GCST...)</t>
+  </si>
+  <si>
+    <t>Source PubMed ID (PMID) or doi</t>
+  </si>
+  <si>
+    <t>Cohort(s)</t>
+  </si>
+  <si>
+    <t>Additional Sample/Cohort Information</t>
+  </si>
+  <si>
+    <t>Source of Variant Associations (GWAS)</t>
+  </si>
+  <si>
+    <t>Score Development/Training</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Any stroke</t>
+  </si>
+  <si>
+    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
+  </si>
+  <si>
+    <t>GCST2</t>
+  </si>
+  <si>
+    <t>GCST3</t>
+  </si>
+  <si>
+    <t>10000012</t>
+  </si>
+  <si>
+    <t>10000013</t>
+  </si>
+  <si>
+    <t>name: IS</t>
+  </si>
+  <si>
+    <t>name: AS</t>
+  </si>
+  <si>
+    <t>Tuning set</t>
+  </si>
+  <si>
     <t>PGS Performance Metric (PPM) ID</t>
   </si>
   <si>
@@ -177,187 +358,16 @@
     <t>0.581 [0.571,0.592]</t>
   </si>
   <si>
-    <t>Number of Individuals</t>
-  </si>
-  <si>
-    <t>Number of Cases</t>
-  </si>
-  <si>
-    <t>Number of Controls</t>
-  </si>
-  <si>
-    <t>Percent of Participants Who are Male</t>
-  </si>
-  <si>
-    <t>Sample Age</t>
-  </si>
-  <si>
-    <t>Broad Ancestry Category</t>
-  </si>
-  <si>
-    <t>Ancestry (e.g. French, Chinese)</t>
-  </si>
-  <si>
-    <t>Country of Recruitment</t>
-  </si>
-  <si>
-    <t>Additional Ancestry Description</t>
-  </si>
-  <si>
-    <t>Phenotype Definitions and Methods</t>
-  </si>
-  <si>
-    <t>Followup Time</t>
-  </si>
-  <si>
-    <t>GWAS Catalog Study ID (GCST...)</t>
-  </si>
-  <si>
-    <t>Source PubMed ID (PMID) or doi</t>
-  </si>
-  <si>
-    <t>Cohort(s)</t>
-  </si>
-  <si>
-    <t>Additional Sample/Cohort Information</t>
-  </si>
-  <si>
     <t>mean:54.3;range:[50.1,58.4];unit:years</t>
   </si>
   <si>
-    <t>European</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
     <t>Prevalent and incident Ischaemic stroke</t>
   </si>
   <si>
     <t>mean:6.2;sd:1.7;unit:years</t>
   </si>
   <si>
-    <t>UKB</t>
-  </si>
-  <si>
     <t>Validation set</t>
-  </si>
-  <si>
-    <t>Stage of PGS Development</t>
-  </si>
-  <si>
-    <t>Source of Variant Associations (GWAS)</t>
-  </si>
-  <si>
-    <t>Score Development/Training</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>Any stroke</t>
-  </si>
-  <si>
-    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
-  </si>
-  <si>
-    <t>GCST2</t>
-  </si>
-  <si>
-    <t>GCST3</t>
-  </si>
-  <si>
-    <t>10000012</t>
-  </si>
-  <si>
-    <t>10000013</t>
-  </si>
-  <si>
-    <t>name: IS</t>
-  </si>
-  <si>
-    <t>name: AS</t>
-  </si>
-  <si>
-    <t>Tuning set</t>
-  </si>
-  <si>
-    <t>PGS Publication/Study (PGP) ID</t>
-  </si>
-  <si>
-    <t>First Author</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Journal Name</t>
-  </si>
-  <si>
-    <t>Publication Date</t>
-  </si>
-  <si>
-    <t>Authors</t>
-  </si>
-  <si>
-    <t>digital object identifier (doi)</t>
-  </si>
-  <si>
-    <t>PubMed ID (PMID)</t>
-  </si>
-  <si>
-    <t>Second T</t>
-  </si>
-  <si>
-    <t>Test publication 2</t>
-  </si>
-  <si>
-    <t>Test Journal v2</t>
-  </si>
-  <si>
-    <t>2019-10-01</t>
-  </si>
-  <si>
-    <t>Second T, Other C, Other D, Other E</t>
-  </si>
-  <si>
-    <t>Ontology Trait ID</t>
-  </si>
-  <si>
-    <t>Ontology Trait Label</t>
-  </si>
-  <si>
-    <t>Ontology Trait Description</t>
-  </si>
-  <si>
-    <t>Ontology URL</t>
-  </si>
-  <si>
-    <t>EFO_0000712</t>
-  </si>
-  <si>
-    <t>HP_0002140</t>
-  </si>
-  <si>
-    <t>stroke</t>
-  </si>
-  <si>
-    <t>Ischemic stroke</t>
-  </si>
-  <si>
-    <t>A sudden loss of neurological function secondary to hemorrhage or ischemia in the brain parenchyma due to a vascular event. [NCIT: C3390]</t>
-  </si>
-  <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0000712</t>
-  </si>
-  <si>
-    <t>https://www.ebi.ac.uk/ols/ontologies/efo/terms?iri=http://purl.obolibrary.org/obo/HP_0002140</t>
   </si>
 </sst>
 </file>
@@ -728,95 +738,216 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>10000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="I2">
         <v>3200000</v>
@@ -825,31 +956,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="L2">
         <v>10000002</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N2" t="b">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +991,198 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2">
+        <v>230000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3">
+        <v>250000</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4">
+        <v>11000</v>
+      </c>
+      <c r="D4">
+        <v>850</v>
+      </c>
+      <c r="E4">
+        <v>10150</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -870,84 +1192,84 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="H2">
         <v>10000002</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -955,7 +1277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -965,63 +1287,63 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C2">
         <v>397390</v>
@@ -1036,311 +1358,28 @@
         <v>45.4</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="P2" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>230000</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" t="s">
-        <v>82</v>
-      </c>
-      <c r="O2" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>250000</v>
-      </c>
-      <c r="H3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" t="s">
-        <v>80</v>
-      </c>
-      <c r="N3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>11000</v>
-      </c>
-      <c r="D4">
-        <v>850</v>
-      </c>
-      <c r="E4">
-        <v>10150</v>
-      </c>
-      <c r="H4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>81</v>
-      </c>
-      <c r="P4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2">
-        <v>10000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -10,10 +10,10 @@
     <sheet name="Publications" sheetId="1" r:id="rId1"/>
     <sheet name="EFO Traits" sheetId="2" r:id="rId2"/>
     <sheet name="Scores" sheetId="3" r:id="rId3"/>
-    <sheet name="Cohorts" sheetId="4" r:id="rId4"/>
-    <sheet name="Score Development Samples" sheetId="5" r:id="rId5"/>
-    <sheet name="Performance Metrics" sheetId="6" r:id="rId6"/>
-    <sheet name="Evaluation Sample Sets" sheetId="7" r:id="rId7"/>
+    <sheet name="Score Development Samples" sheetId="4" r:id="rId4"/>
+    <sheet name="Performance Metrics" sheetId="5" r:id="rId5"/>
+    <sheet name="Evaluation Sample Sets" sheetId="6" r:id="rId6"/>
+    <sheet name="Cohorts" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -196,178 +196,178 @@
     <t>PGS obtained from the Catalog should be cited appropriately, and used in accordance with any licensing restrictions set by the authors. See EBI Terms of Use (https://www.ebi.ac.uk/about/terms-of-use/) for additional details.</t>
   </si>
   <si>
+    <t>Stage of PGS Development</t>
+  </si>
+  <si>
+    <t>Number of Individuals</t>
+  </si>
+  <si>
+    <t>Number of Cases</t>
+  </si>
+  <si>
+    <t>Number of Controls</t>
+  </si>
+  <si>
+    <t>Percent of Participants Who are Male</t>
+  </si>
+  <si>
+    <t>Sample Age</t>
+  </si>
+  <si>
+    <t>Broad Ancestry Category</t>
+  </si>
+  <si>
+    <t>Ancestry (e.g. French, Chinese)</t>
+  </si>
+  <si>
+    <t>Country of Recruitment</t>
+  </si>
+  <si>
+    <t>Additional Ancestry Description</t>
+  </si>
+  <si>
+    <t>Phenotype Definitions and Methods</t>
+  </si>
+  <si>
+    <t>Followup Time</t>
+  </si>
+  <si>
+    <t>GWAS Catalog Study ID (GCST...)</t>
+  </si>
+  <si>
+    <t>Source PubMed ID (PMID) or doi</t>
+  </si>
+  <si>
+    <t>Cohort(s)</t>
+  </si>
+  <si>
+    <t>Additional Sample/Cohort Information</t>
+  </si>
+  <si>
+    <t>Source of Variant Associations (GWAS)</t>
+  </si>
+  <si>
+    <t>Score Development/Training</t>
+  </si>
+  <si>
+    <t>European</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>Any stroke</t>
+  </si>
+  <si>
+    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
+  </si>
+  <si>
+    <t>GCST2</t>
+  </si>
+  <si>
+    <t>GCST3</t>
+  </si>
+  <si>
+    <t>10000012</t>
+  </si>
+  <si>
+    <t>10000013</t>
+  </si>
+  <si>
+    <t>UKB</t>
+  </si>
+  <si>
+    <t>name: IS</t>
+  </si>
+  <si>
+    <t>name: AS</t>
+  </si>
+  <si>
+    <t>Tuning set</t>
+  </si>
+  <si>
+    <t>PGS Performance Metric (PPM) ID</t>
+  </si>
+  <si>
+    <t>Evaluated Score</t>
+  </si>
+  <si>
+    <t>PGS Sample Set (PSS)</t>
+  </si>
+  <si>
+    <t>Covariates Included in the Model</t>
+  </si>
+  <si>
+    <t>PGS Performance: Other Relevant Information</t>
+  </si>
+  <si>
+    <t>Hazard Ratio (HR)</t>
+  </si>
+  <si>
+    <t>Odds Ratio (OR)</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
+  </si>
+  <si>
+    <t>Corcordance Statistic (C-index)</t>
+  </si>
+  <si>
+    <t>Other Metric(s)</t>
+  </si>
+  <si>
+    <t>PPM3</t>
+  </si>
+  <si>
+    <t>PSS3</t>
+  </si>
+  <si>
+    <t>Ischaemic stroke before age 75</t>
+  </si>
+  <si>
+    <t>Sex, genotyping chip</t>
+  </si>
+  <si>
+    <t>Extra comment for test</t>
+  </si>
+  <si>
+    <t>1.24 [1.2,1.29]</t>
+  </si>
+  <si>
+    <t>0.581 [0.571,0.592]</t>
+  </si>
+  <si>
+    <t>mean:54.3;range:[50.1,58.4];unit:years</t>
+  </si>
+  <si>
+    <t>Prevalent and incident Ischaemic stroke</t>
+  </si>
+  <si>
+    <t>mean:6.2;sd:1.7;unit:years</t>
+  </si>
+  <si>
+    <t>Validation set</t>
+  </si>
+  <si>
     <t>Cohort ID</t>
   </si>
   <si>
     <t>Cohort Name</t>
   </si>
   <si>
-    <t>UKB</t>
-  </si>
-  <si>
     <t>UK Biobank</t>
-  </si>
-  <si>
-    <t>Stage of PGS Development</t>
-  </si>
-  <si>
-    <t>Number of Individuals</t>
-  </si>
-  <si>
-    <t>Number of Cases</t>
-  </si>
-  <si>
-    <t>Number of Controls</t>
-  </si>
-  <si>
-    <t>Percent of Participants Who are Male</t>
-  </si>
-  <si>
-    <t>Sample Age</t>
-  </si>
-  <si>
-    <t>Broad Ancestry Category</t>
-  </si>
-  <si>
-    <t>Ancestry (e.g. French, Chinese)</t>
-  </si>
-  <si>
-    <t>Country of Recruitment</t>
-  </si>
-  <si>
-    <t>Additional Ancestry Description</t>
-  </si>
-  <si>
-    <t>Phenotype Definitions and Methods</t>
-  </si>
-  <si>
-    <t>Followup Time</t>
-  </si>
-  <si>
-    <t>GWAS Catalog Study ID (GCST...)</t>
-  </si>
-  <si>
-    <t>Source PubMed ID (PMID) or doi</t>
-  </si>
-  <si>
-    <t>Cohort(s)</t>
-  </si>
-  <si>
-    <t>Additional Sample/Cohort Information</t>
-  </si>
-  <si>
-    <t>Source of Variant Associations (GWAS)</t>
-  </si>
-  <si>
-    <t>Score Development/Training</t>
-  </si>
-  <si>
-    <t>European</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Sweden, U.K., Italy, Spain, NR</t>
-  </si>
-  <si>
-    <t>UK</t>
-  </si>
-  <si>
-    <t>Any stroke</t>
-  </si>
-  <si>
-    <t>Prevalent and incident Ischaemic stroke; defined in http://biobank.ndph.ox.ac.uk/showcase/docs/alg_outcome_stroke.pdf</t>
-  </si>
-  <si>
-    <t>GCST2</t>
-  </si>
-  <si>
-    <t>GCST3</t>
-  </si>
-  <si>
-    <t>10000012</t>
-  </si>
-  <si>
-    <t>10000013</t>
-  </si>
-  <si>
-    <t>name: IS</t>
-  </si>
-  <si>
-    <t>name: AS</t>
-  </si>
-  <si>
-    <t>Tuning set</t>
-  </si>
-  <si>
-    <t>PGS Performance Metric (PPM) ID</t>
-  </si>
-  <si>
-    <t>Evaluated Score</t>
-  </si>
-  <si>
-    <t>PGS Sample Set (PSS)</t>
-  </si>
-  <si>
-    <t>Covariates Included in the Model</t>
-  </si>
-  <si>
-    <t>PGS Performance: Other Relevant Information</t>
-  </si>
-  <si>
-    <t>Hazard Ratio (HR)</t>
-  </si>
-  <si>
-    <t>Odds Ratio (OR)</t>
-  </si>
-  <si>
-    <t>Beta</t>
-  </si>
-  <si>
-    <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
-  </si>
-  <si>
-    <t>Corcordance Statistic (C-index)</t>
-  </si>
-  <si>
-    <t>Other Metric(s)</t>
-  </si>
-  <si>
-    <t>PPM3</t>
-  </si>
-  <si>
-    <t>PSS3</t>
-  </si>
-  <si>
-    <t>Ischaemic stroke before age 75</t>
-  </si>
-  <si>
-    <t>Sex, genotyping chip</t>
-  </si>
-  <si>
-    <t>Extra comment for test</t>
-  </si>
-  <si>
-    <t>1.24 [1.2,1.29]</t>
-  </si>
-  <si>
-    <t>0.581 [0.571,0.592]</t>
-  </si>
-  <si>
-    <t>mean:54.3;range:[50.1,58.4];unit:years</t>
-  </si>
-  <si>
-    <t>Prevalent and incident Ischaemic stroke</t>
-  </si>
-  <si>
-    <t>mean:6.2;sd:1.7;unit:years</t>
-  </si>
-  <si>
-    <t>Validation set</t>
   </si>
 </sst>
 </file>
@@ -993,35 +993,6 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1033,52 +1004,52 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1086,31 +1057,31 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C2">
         <v>230000</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Q2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1118,31 +1089,31 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
       <c r="N3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1150,7 +1121,7 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>11000</v>
@@ -1162,19 +1133,19 @@
         <v>10150</v>
       </c>
       <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
         <v>80</v>
       </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
       <c r="L4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -1192,13 +1163,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -1207,10 +1178,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1219,45 +1190,45 @@
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H2">
         <v>10000002</v>
@@ -1266,10 +1237,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1287,60 +1258,60 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -1358,24 +1329,53 @@
         <v>45.4</v>
       </c>
       <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
+        <v>110</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
         <v>112</v>
       </c>
-      <c r="H2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L2" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="M2" t="s">
+      <c r="B1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q2" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
         <v>115</v>
       </c>
     </row>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
   <si>
     <t>PGS Publication/Study (PGP) ID</t>
   </si>
@@ -235,7 +235,10 @@
     <t>GWAS Catalog Study ID (GCST...)</t>
   </si>
   <si>
-    <t>Source PubMed ID (PMID) or doi</t>
+    <t>Source PubMed ID (PMID)</t>
+  </si>
+  <si>
+    <t>Source DOI</t>
   </si>
   <si>
     <t>Cohort(s)</t>
@@ -277,12 +280,6 @@
     <t>GCST3</t>
   </si>
   <si>
-    <t>10000012</t>
-  </si>
-  <si>
-    <t>10000013</t>
-  </si>
-  <si>
     <t>UKB</t>
   </si>
   <si>
@@ -356,6 +353,9 @@
   </si>
   <si>
     <t>mean:6.2;sd:1.7;unit:years</t>
+  </si>
+  <si>
+    <t>10.2021/pgs.1003</t>
   </si>
   <si>
     <t>Validation set</t>
@@ -993,13 +993,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1051,77 +1051,80 @@
       <c r="Q1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>230000</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
         <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>83</v>
-      </c>
-      <c r="O2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>84</v>
+      </c>
+      <c r="O2">
+        <v>10000012</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>84</v>
-      </c>
-      <c r="O3" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>85</v>
+      </c>
+      <c r="O3">
+        <v>10000013</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>11000</v>
@@ -1133,19 +1136,19 @@
         <v>10150</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" t="s">
-        <v>82</v>
-      </c>
-      <c r="P4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="R4" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1163,13 +1166,13 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -1178,10 +1181,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>37</v>
@@ -1190,45 +1193,45 @@
         <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
         <v>104</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>105</v>
-      </c>
-      <c r="G2" t="s">
-        <v>106</v>
       </c>
       <c r="H2">
         <v>10000002</v>
@@ -1237,10 +1240,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" t="s">
         <v>107</v>
-      </c>
-      <c r="N2" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1250,15 +1253,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
@@ -1308,10 +1311,13 @@
       <c r="Q1" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -1329,24 +1335,27 @@
         <v>45.4</v>
       </c>
       <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>110</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>111</v>
       </c>
-      <c r="P2" t="s">
-        <v>87</v>
-      </c>
       <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1373,7 +1382,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>115</v>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
   <si>
     <t>PGS Publication/Study (PGP) ID</t>
   </si>
@@ -130,6 +130,9 @@
     <t>Number of Interaction Terms</t>
   </si>
   <si>
+    <t>Type of Variant Weight</t>
+  </si>
+  <si>
     <t>PGS Publication (PGP) ID</t>
   </si>
   <si>
@@ -181,6 +184,9 @@
     <t>hg19</t>
   </si>
   <si>
+    <t>NR</t>
+  </si>
+  <si>
     <t>European:75.3|South Asian:13.6|East Asian:6|Hispanic or Latin American:2.2|African:1.7|Greater Middle Eastern:1.2</t>
   </si>
   <si>
@@ -254,9 +260,6 @@
   </si>
   <si>
     <t>European</t>
-  </si>
-  <si>
-    <t>NR</t>
   </si>
   <si>
     <t>Canada, U.S., Australia, Austria, Belgium, France, Germany, Netherlands, Switzerland, Poland, Denmark, Finland, Iceland, Norway, Sweden, U.K., Italy, Spain, NR</t>
@@ -859,13 +862,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -923,31 +926,34 @@
       <c r="S1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2">
         <v>3200000</v>
@@ -956,36 +962,39 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>10000002</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="b">
+      <c r="O2" t="b">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
       <c r="P2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
         <v>57</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="R2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1004,127 +1013,127 @@
         <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2">
         <v>230000</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2">
         <v>10000012</v>
       </c>
       <c r="R2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O3">
         <v>10000013</v>
       </c>
       <c r="R3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>11000</v>
@@ -1136,19 +1145,19 @@
         <v>10150</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1166,72 +1175,72 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H2">
         <v>10000002</v>
@@ -1240,10 +1249,10 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1261,66 +1270,66 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>397390</v>
@@ -1335,28 +1344,28 @@
         <v>45.4</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1374,18 +1383,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
   <si>
     <t>PGS Publication/Study (PGP) ID</t>
   </si>
@@ -370,7 +370,13 @@
     <t>Cohort Name</t>
   </si>
   <si>
+    <t>Previous/other/additional names</t>
+  </si>
+  <si>
     <t>UK Biobank</t>
+  </si>
+  <si>
+    <t>UKBB</t>
   </si>
 </sst>
 </file>
@@ -1375,26 +1381,32 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t>PGS Publication/Study (PGP) ID</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Publication Date</t>
   </si>
   <si>
+    <t>Release Date</t>
+  </si>
+  <si>
     <t>Authors</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
   </si>
   <si>
     <t>Second T, Other C, Other D, Other E</t>
@@ -747,13 +753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -778,30 +784,36 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2">
         <v>10000002</v>
       </c>
     </row>
@@ -820,41 +832,41 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -868,98 +880,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <v>3200000</v>
@@ -968,34 +983,37 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M2">
         <v>10000002</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>59</v>
+        <v>14</v>
+      </c>
+      <c r="U2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1016,130 +1034,130 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2">
         <v>230000</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O2">
         <v>10000012</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3">
         <v>250000</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O3">
         <v>10000013</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>11000</v>
@@ -1151,19 +1169,19 @@
         <v>10150</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1181,84 +1199,84 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H2">
         <v>10000002</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1276,66 +1294,66 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2">
         <v>397390</v>
@@ -1350,28 +1368,28 @@
         <v>45.4</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1389,24 +1407,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
+++ b/tests/output/PGS3/Metadata/PGS3_metadata.xlsx
@@ -328,7 +328,7 @@
     <t>Area Under the Receiver-Operating Characteristic Curve (AUROC)</t>
   </si>
   <si>
-    <t>Corcordance Statistic (C-index)</t>
+    <t>Concordance Statistic (C-index)</t>
   </si>
   <si>
     <t>Other Metric(s)</t>
